--- a/results/mp/deberta/corona/confidence/84/stop-words-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-masking-0.2/avg_0.003_scores.xlsx
@@ -148,13 +148,13 @@
     <t>share</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>hand</t>
@@ -1641,25 +1641,25 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0.6796536796536796</v>
+        <v>0.6569037656903766</v>
       </c>
       <c r="L26">
         <v>157</v>
       </c>
       <c r="M26">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="N26">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1745,25 +1745,25 @@
         <v>44</v>
       </c>
       <c r="K30">
-        <v>0.5932721712538226</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L30">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="N30">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O30">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>133</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1771,25 +1771,25 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>0.5873015873015873</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="N31">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O31">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1797,25 +1797,25 @@
         <v>46</v>
       </c>
       <c r="K32">
-        <v>0.5813953488372093</v>
+        <v>0.5705882352941176</v>
       </c>
       <c r="L32">
-        <v>50</v>
+        <v>194</v>
       </c>
       <c r="M32">
-        <v>53</v>
+        <v>194</v>
       </c>
       <c r="N32">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>36</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="10:17">
